--- a/docs/ST3/ST3_14.08.2024_output.xlsx
+++ b/docs/ST3/ST3_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731670118.0976646</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731670118.507868</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670118.0976646.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670118.507868.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.56</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731670121.9656596</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731670121.9656596.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731670121.9656596.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.96</v>
       </c>
-      <c r="J4" t="n">
-        <v>282.96</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>282.27</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6899999999999977</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731670125.3393116</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731670125.6703303</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670125.3393116.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670125.6703303.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.56</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283.19</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731670128.8545694</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731670132.9358184</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670128.8545694.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670132.9358184.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.96</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>284</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.04000000000002</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731670132.9863436</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731670133.5141776</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670132.9863436.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670133.5141776.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>284.12</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>284.23</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1100000000000136</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731670136.599182</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731670137.11622</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670136.599182.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670137.11622.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.75</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -843,95 +895,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731670137.8252087</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731670137.8252087.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731670137.8252087.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.42</v>
       </c>
-      <c r="J9" t="n">
-        <v>283.42</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>282.91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5099999999999909</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731670143.4714267</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731670145.0832582</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670143.4714267.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670145.0832582.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>131.26</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>131.01</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -939,51 +1003,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731670145.0982144</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731670145.5122168</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670145.0982144.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670145.5122168.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>131.01</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>130.76</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.25</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -991,95 +1061,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731670146.3496957</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731670146.3496957.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731670146.3496957.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>130.86</v>
       </c>
-      <c r="J12" t="n">
-        <v>130.86</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>130.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731670149.398698</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731670150.3677704</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670149.398698.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670150.3677704.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6513</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6499</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-14</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1087,51 +1169,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731670155.9119732</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731670157.249987</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731670155.9119732.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731670157.249987.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>502.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>503.55</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1.350000000000023</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1139,95 +1227,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731670161.9341419</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731670161.9341419.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731670161.9341419.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>501.3</v>
       </c>
-      <c r="J15" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>501.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731670162.5118546</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731670163.1702597</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670162.5118546.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670163.1702597.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>226.17</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>226.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.1300000000000239</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1235,51 +1335,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731670164.549404</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731670165.1982634</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670164.549404.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670165.1982634.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>225.77</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>225.49</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1287,51 +1393,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731670165.9612432</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731670167.1186173</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670165.9612432.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670167.1186173.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>225.56</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>225.42</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1339,51 +1451,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731670176.688679</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731670177.498204</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670176.688679.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670177.498204.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1060.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1057.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1391,139 +1509,157 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731670177.9352071</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731670177.9352071.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731670177.9352071.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1060.2</v>
       </c>
-      <c r="J20" t="n">
-        <v>1060.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1060</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731670184.9695632</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731670184.9695632.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731670184.9695632.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>12.153</v>
       </c>
-      <c r="J21" t="n">
-        <v>12.153</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>12.088</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.06500000000000128</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731670187.119394</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731670189.423432</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670187.119394.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670189.423432.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>127.36</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>127.28</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1531,51 +1667,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731670193.0135615</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731670193.9962106</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670193.0135615.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670193.9962106.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>126.94</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>126.58</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1583,51 +1725,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731670197.1228387</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731670199.5619686</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670197.1228387.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670199.5619686.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>165.04</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>165.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1635,51 +1783,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731670202.7001789</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731670204.152948</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670202.7001789.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670204.152948.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>50.41</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>50.355</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1687,51 +1841,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731670208.703193</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731670209.2370002</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670208.703193.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670209.2370002.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>50.315</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>50.075</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1739,51 +1899,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731670216.3348794</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731670216.6194053</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670216.3348794.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670216.6194053.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1404.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1399.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>5.399999999999864</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1791,95 +1957,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731670217.20615</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731670217.20615.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731670217.20615.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1400.8</v>
       </c>
-      <c r="J28" t="n">
-        <v>1400.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1401</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731670224.5503647</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731670224.8831518</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670224.5503647.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670224.8831518.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>59.62</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>59.54</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1887,51 +2065,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731670224.9775925</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731670225.1160173</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670224.9775925.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670225.1160173.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>59.59</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>59.53</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1939,95 +2123,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731670225.6606781</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731670225.6606781.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731670225.6606781.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>59.58</v>
       </c>
-      <c r="J31" t="n">
-        <v>59.58</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>59.59</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.01000000000000512</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731670226.1609867</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731670227.5307791</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670226.1609867.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670227.5307791.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>101.45</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>100.98</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.4699999999999989</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -2035,51 +2231,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731670229.1472664</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731670230.140323</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670229.1472664.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670230.140323.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>101.45</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>101.65</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2087,51 +2289,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731670230.6767075</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731670232.798338</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670230.6767075.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670232.798338.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>101.69</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>101.31</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.3799999999999955</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -2139,139 +2347,157 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731670234.3795269</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731670234.3795269.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731670234.3795269.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>101.19</v>
       </c>
-      <c r="J35" t="n">
-        <v>101.19</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>101.06</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1299999999999955</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731670241.0041194</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731670241.0041194.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731670241.0041194.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>56.87</v>
       </c>
-      <c r="J36" t="n">
-        <v>56.87</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>56.71</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731670246.3387141</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731670247.1396866</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670246.3387141.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670247.1396866.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>157.7</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>157.58</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1199999999999761</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2279,139 +2505,157 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731670248.4320104</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731670248.4320104.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731670248.4320104.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>157</v>
       </c>
-      <c r="J38" t="n">
-        <v>157</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>156.98</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731670263.333087</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731670263.333087.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731670263.333087.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>20.78</v>
       </c>
-      <c r="J39" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>20.717</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.06300000000000239</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731670263.9995012</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731670265.42288</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670263.9995012.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670265.42288.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>693.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>692.1</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.699999999999932</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2419,88 +2663,100 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731670268.76645</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731670268.76645.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731670268.76645.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>693.55</v>
       </c>
-      <c r="J41" t="n">
-        <v>693.55</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>690.1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-3.449999999999932</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731670278.54208</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731670278.54208.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731670278.54208.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>156.8</v>
       </c>
-      <c r="J42" t="n">
-        <v>156.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>156.26</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5400000000000205</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -2561,19 +2817,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8500000000000227</v>
+        <v>-0.3400000000000318</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1700000000000045</v>
+        <v>-0.06800000000000636</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3</v>
+        <v>-0.12</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
@@ -2583,19 +2839,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6499999999999915</v>
+        <v>-0.519999999999996</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1624999999999979</v>
+        <v>-0.129999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6299999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.16</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="4">
@@ -2605,19 +2861,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.02000000000000076</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -2649,19 +2905,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1400000000000006</v>
+        <v>0.1299999999999955</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04666666666666686</v>
+        <v>0.04333333333333182</v>
       </c>
       <c r="E6" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2671,19 +2927,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.399999999999864</v>
+        <v>5.199999999999818</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.699999999999932</v>
+        <v>2.599999999999909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -2715,16 +2971,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1199999999999761</v>
+        <v>0.1399999999999864</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05999999999998806</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F9" t="n">
         <v>0.04</v>
@@ -2759,19 +3015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.699999999999932</v>
+        <v>-5.149999999999864</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8499999999999659</v>
+        <v>-2.574999999999932</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.12</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="12">
@@ -2781,19 +3037,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.799999999999955</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1.399999999999977</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="F12" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="13">
@@ -2803,19 +3059,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.350000000000023</v>
+        <v>-1.550000000000011</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6750000000000114</v>
+        <v>-0.7750000000000057</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.27</v>
+        <v>-0.31</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="14">
@@ -2825,19 +3081,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3700000000000045</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1850000000000023</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
@@ -2847,19 +3103,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.06300000000000239</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.06300000000000239</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -2869,19 +3125,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17">
@@ -2913,19 +3169,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.5400000000000205</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.5400000000000205</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19">
@@ -2957,19 +3213,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.06500000000000128</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.06500000000000128</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="21">
